--- a/SeleniumCode.xlsx
+++ b/SeleniumCode.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="729" firstSheet="10" activeTab="15"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="729" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ImportantNotes" sheetId="19" r:id="rId1"/>
@@ -2717,7 +2717,7 @@
         <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{1AFA6ABB-6878-4CD4-A1CE-224E50B24277}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1AFA6ABB-6878-4CD4-A1CE-224E50B24277}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3034,7 +3034,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4841,7 +4841,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -5399,8 +5399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A2:A9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
